--- a/Code/Results/Cases/Case_1_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.229828566940257</v>
+        <v>7.833648188735877</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.857318067937721</v>
+        <v>7.942072044691518</v>
       </c>
       <c r="E2">
-        <v>10.28353647903485</v>
+        <v>13.17348693695376</v>
       </c>
       <c r="F2">
-        <v>30.49964730313096</v>
+        <v>38.80011919111798</v>
       </c>
       <c r="G2">
-        <v>38.76665117046907</v>
+        <v>44.83688766134003</v>
       </c>
       <c r="H2">
-        <v>12.21021322563559</v>
+        <v>18.13860692744838</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.556290145399086</v>
+        <v>10.14301455620032</v>
       </c>
       <c r="K2">
-        <v>18.36124487217448</v>
+        <v>14.21353379399252</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.875045730854968</v>
+        <v>7.764242965447843</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.581231031970989</v>
+        <v>7.904030169677477</v>
       </c>
       <c r="E3">
-        <v>9.843868610342472</v>
+        <v>13.12396650494155</v>
       </c>
       <c r="F3">
-        <v>29.67003564516109</v>
+        <v>38.78703876618852</v>
       </c>
       <c r="G3">
-        <v>37.53460490286572</v>
+        <v>44.76747267378506</v>
       </c>
       <c r="H3">
-        <v>12.12180323506582</v>
+        <v>18.18342773606313</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.441873657466007</v>
+        <v>10.15163998860108</v>
       </c>
       <c r="K3">
-        <v>17.15091082845078</v>
+        <v>13.85665889925906</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.651536570194478</v>
+        <v>7.72320144477648</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.406984199980134</v>
+        <v>7.881715106664447</v>
       </c>
       <c r="E4">
-        <v>9.570808871110478</v>
+        <v>13.09622379112826</v>
       </c>
       <c r="F4">
-        <v>29.18335751550634</v>
+        <v>38.79014149059881</v>
       </c>
       <c r="G4">
-        <v>36.81001687784708</v>
+        <v>44.74055136630349</v>
       </c>
       <c r="H4">
-        <v>12.07894279332101</v>
+        <v>18.21490304301797</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.375059503241618</v>
+        <v>10.15867910077848</v>
       </c>
       <c r="K4">
-        <v>16.36745937961943</v>
+        <v>13.63553500432987</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.559152141171376</v>
+        <v>7.706890394296038</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.334870419447628</v>
+        <v>7.872890157931265</v>
       </c>
       <c r="E5">
-        <v>9.458895781853624</v>
+        <v>13.08559585199511</v>
       </c>
       <c r="F5">
-        <v>28.99080408859063</v>
+        <v>38.79420103139911</v>
       </c>
       <c r="G5">
-        <v>36.52290349996636</v>
+        <v>44.73352497526613</v>
       </c>
       <c r="H5">
-        <v>12.06423425980654</v>
+        <v>18.22872088671235</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.348695918549774</v>
+        <v>10.16198572518456</v>
       </c>
       <c r="K5">
-        <v>16.03799272937456</v>
+        <v>13.54505852041486</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.543737104547144</v>
+        <v>7.704207454629304</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.322831817138222</v>
+        <v>7.871441186785059</v>
       </c>
       <c r="E6">
-        <v>9.440278606329224</v>
+        <v>13.08387221902405</v>
       </c>
       <c r="F6">
-        <v>28.95918093002865</v>
+        <v>38.795043758322</v>
       </c>
       <c r="G6">
-        <v>36.47572537376099</v>
+        <v>44.73259627711145</v>
       </c>
       <c r="H6">
-        <v>12.06195505631565</v>
+        <v>18.23107511202942</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.344370386803289</v>
+        <v>10.16256124209664</v>
       </c>
       <c r="K6">
-        <v>15.98266695932168</v>
+        <v>13.5300169291296</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.650295737872258</v>
+        <v>7.722979769947937</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.406016010522325</v>
+        <v>7.88159499445579</v>
       </c>
       <c r="E7">
-        <v>9.569301958689943</v>
+        <v>13.09607770636398</v>
       </c>
       <c r="F7">
-        <v>29.18073722868129</v>
+        <v>38.79018492934364</v>
       </c>
       <c r="G7">
-        <v>36.80611154061484</v>
+        <v>44.74044064409853</v>
       </c>
       <c r="H7">
-        <v>12.07873341769194</v>
+        <v>18.21508538549696</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.374700459365042</v>
+        <v>10.15872192142911</v>
       </c>
       <c r="K7">
-        <v>16.3630574755655</v>
+        <v>13.63431610676685</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.108744342145694</v>
+        <v>7.809401712617622</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.763149525292965</v>
+        <v>7.928742702994672</v>
       </c>
       <c r="E8">
-        <v>10.13266113208832</v>
+        <v>13.1558644944118</v>
       </c>
       <c r="F8">
-        <v>30.20892408171773</v>
+        <v>38.79329602531135</v>
       </c>
       <c r="G8">
-        <v>38.3353102198823</v>
+        <v>44.80969411935303</v>
       </c>
       <c r="H8">
-        <v>12.1772898503773</v>
+        <v>18.15323839920188</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.516125531310303</v>
+        <v>10.14562675731575</v>
       </c>
       <c r="K8">
-        <v>17.95224047908073</v>
+        <v>14.0909786682828</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.958339840896958</v>
+        <v>7.990534219509709</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.423076158398051</v>
+        <v>8.029179368417871</v>
       </c>
       <c r="E9">
-        <v>11.20767010800651</v>
+        <v>13.29385884648259</v>
       </c>
       <c r="F9">
-        <v>32.40253818488269</v>
+        <v>38.88785393219484</v>
       </c>
       <c r="G9">
-        <v>41.58092944661009</v>
+        <v>45.0700184638651</v>
       </c>
       <c r="H9">
-        <v>12.46625232403719</v>
+        <v>18.06347437382524</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.82076884271659</v>
+        <v>10.13378207754559</v>
       </c>
       <c r="K9">
-        <v>20.75262672220784</v>
+        <v>14.96494841199359</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.578350810577625</v>
+        <v>8.129573147518542</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.880349209511722</v>
+        <v>8.107424063967057</v>
       </c>
       <c r="E10">
-        <v>11.9740389179868</v>
+        <v>13.40734119754875</v>
       </c>
       <c r="F10">
-        <v>34.11923446745678</v>
+        <v>39.01126815018412</v>
       </c>
       <c r="G10">
-        <v>44.10922442048579</v>
+        <v>45.33681298103772</v>
       </c>
       <c r="H10">
-        <v>12.74371127834197</v>
+        <v>18.01691544792497</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.061350796990484</v>
+        <v>10.13351489008168</v>
       </c>
       <c r="K10">
-        <v>22.62351952375612</v>
+        <v>15.58685502829543</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.891762368277675</v>
+        <v>8.193867757490745</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.082008006207626</v>
+        <v>8.143894133026123</v>
       </c>
       <c r="E11">
-        <v>12.31690201317028</v>
+        <v>13.46146170441785</v>
       </c>
       <c r="F11">
-        <v>34.9227575134918</v>
+        <v>39.07908147172608</v>
       </c>
       <c r="G11">
-        <v>45.28994518102351</v>
+        <v>45.47440666320976</v>
       </c>
       <c r="H11">
-        <v>12.88553500688536</v>
+        <v>17.99997932969108</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.17449690359689</v>
+        <v>10.13522266564675</v>
       </c>
       <c r="K11">
-        <v>23.43568790125751</v>
+        <v>15.8640558084707</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.008132480494622</v>
+        <v>8.218343311559442</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.157439138816023</v>
+        <v>8.157822241281364</v>
       </c>
       <c r="E12">
-        <v>12.44587677295548</v>
+        <v>13.48230257026349</v>
       </c>
       <c r="F12">
-        <v>35.23029625788798</v>
+        <v>39.10643126364985</v>
       </c>
       <c r="G12">
-        <v>45.74146550658774</v>
+        <v>45.52882060936633</v>
       </c>
       <c r="H12">
-        <v>12.94160448584026</v>
+        <v>17.99417878219852</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.217883445971037</v>
+        <v>10.13613195556092</v>
       </c>
       <c r="K12">
-        <v>23.73778374429611</v>
+        <v>15.96810383609796</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.983172259704524</v>
+        <v>8.213066690055618</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.141235366555581</v>
+        <v>8.154817473923517</v>
       </c>
       <c r="E13">
-        <v>12.41813828375252</v>
+        <v>13.47779890567554</v>
       </c>
       <c r="F13">
-        <v>35.16391654043677</v>
+        <v>39.10046685930114</v>
       </c>
       <c r="G13">
-        <v>45.64402561942894</v>
+        <v>45.51699926519699</v>
       </c>
       <c r="H13">
-        <v>12.92942184303127</v>
+        <v>17.99540074150738</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.208515163934018</v>
+        <v>10.13592445365401</v>
       </c>
       <c r="K13">
-        <v>23.67296220427506</v>
+        <v>15.94573775421332</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.901382306159991</v>
+        <v>8.195878923460468</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.088232534357121</v>
+        <v>8.145037696466721</v>
       </c>
       <c r="E14">
-        <v>12.32753018808538</v>
+        <v>13.46316942178983</v>
       </c>
       <c r="F14">
-        <v>34.94799330833878</v>
+        <v>39.08129813327359</v>
       </c>
       <c r="G14">
-        <v>45.32700340361418</v>
+        <v>45.4788371811326</v>
       </c>
       <c r="H14">
-        <v>12.89009980309526</v>
+        <v>17.99948982006615</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.178055446264696</v>
+        <v>10.13529221386508</v>
       </c>
       <c r="K14">
-        <v>23.46064997144913</v>
+        <v>15.8726349278715</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.850983732076427</v>
+        <v>8.185367020718125</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.05564492504491</v>
+        <v>8.139062377023599</v>
       </c>
       <c r="E15">
-        <v>12.2719175262357</v>
+        <v>13.45425319973254</v>
       </c>
       <c r="F15">
-        <v>34.81616001772292</v>
+        <v>39.06977398753524</v>
       </c>
       <c r="G15">
-        <v>45.1333935301294</v>
+        <v>45.45576188968541</v>
       </c>
       <c r="H15">
-        <v>12.8663253761554</v>
+        <v>18.0020743743334</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.15946869440144</v>
+        <v>10.13493912997393</v>
       </c>
       <c r="K15">
-        <v>23.3298966547956</v>
+        <v>15.82773442016955</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.557542853441696</v>
+        <v>8.125390519160364</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.867040601510714</v>
+        <v>8.1050575836792</v>
       </c>
       <c r="E16">
-        <v>11.95151290071703</v>
+        <v>13.40385348789128</v>
       </c>
       <c r="F16">
-        <v>34.06717715289884</v>
+        <v>39.00707062206118</v>
       </c>
       <c r="G16">
-        <v>44.03267618973604</v>
+        <v>45.32814556403517</v>
       </c>
       <c r="H16">
-        <v>12.73476697406718</v>
+        <v>18.01810788088758</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.054031553702006</v>
+        <v>10.13344005719944</v>
       </c>
       <c r="K16">
-        <v>22.5696711257609</v>
+        <v>15.56861561514159</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.379339231928425</v>
+        <v>8.088849127253599</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.749693410440686</v>
+        <v>8.084415296414782</v>
       </c>
       <c r="E17">
-        <v>11.75345032347789</v>
+        <v>13.37356573236966</v>
       </c>
       <c r="F17">
-        <v>33.61348339288713</v>
+        <v>38.97158856599494</v>
       </c>
       <c r="G17">
-        <v>43.36524049419665</v>
+        <v>45.25399824027379</v>
       </c>
       <c r="H17">
-        <v>12.65814167184158</v>
+        <v>18.02903272613645</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.990302389928658</v>
+        <v>10.13298867241294</v>
       </c>
       <c r="K17">
-        <v>22.09342708216754</v>
+        <v>15.40811812028148</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.291560485171708</v>
+        <v>8.067931160523671</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.681600515662445</v>
+        <v>8.072625376467959</v>
       </c>
       <c r="E18">
-        <v>11.63898820218756</v>
+        <v>13.35638081184352</v>
       </c>
       <c r="F18">
-        <v>33.35465394246997</v>
+        <v>38.95227943929336</v>
       </c>
       <c r="G18">
-        <v>42.98422373151248</v>
+        <v>45.21287976514533</v>
       </c>
       <c r="H18">
-        <v>12.61553049647327</v>
+        <v>18.03571571312066</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.953995027589102</v>
+        <v>10.13290126845401</v>
       </c>
       <c r="K18">
-        <v>21.8158324471401</v>
+        <v>15.31527248456644</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.261709281658382</v>
+        <v>8.06086647638635</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.658443470633654</v>
+        <v>8.068648013919063</v>
       </c>
       <c r="E19">
-        <v>11.60014154291522</v>
+        <v>13.35060316032587</v>
       </c>
       <c r="F19">
-        <v>33.26738363133079</v>
+        <v>38.94593069671275</v>
       </c>
       <c r="G19">
-        <v>42.85571256885197</v>
+        <v>45.19922101468942</v>
       </c>
       <c r="H19">
-        <v>12.60135052313997</v>
+        <v>18.03804695766287</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.941761566426766</v>
+        <v>10.1329012658439</v>
       </c>
       <c r="K19">
-        <v>21.72120901273058</v>
+        <v>15.28374844346999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.395522635876231</v>
+        <v>8.092728861916063</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.762247264792237</v>
+        <v>8.086604174881279</v>
       </c>
       <c r="E20">
-        <v>11.77459078718545</v>
+        <v>13.37676559995407</v>
       </c>
       <c r="F20">
-        <v>33.6615601548925</v>
+        <v>38.97525197777923</v>
       </c>
       <c r="G20">
-        <v>43.43599281200905</v>
+        <v>45.26173324739959</v>
       </c>
       <c r="H20">
-        <v>12.66614643033114</v>
+        <v>18.02782841221198</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.997050410684251</v>
+        <v>10.13301890184694</v>
       </c>
       <c r="K20">
-        <v>22.14450310363274</v>
+        <v>15.42525914313208</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.925468415029055</v>
+        <v>8.200924070526026</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.103826162561264</v>
+        <v>8.14790712726491</v>
       </c>
       <c r="E21">
-        <v>12.3541674724644</v>
+        <v>13.46745715103287</v>
       </c>
       <c r="F21">
-        <v>35.01132634905736</v>
+        <v>39.08688319510892</v>
       </c>
       <c r="G21">
-        <v>45.42000048535137</v>
+        <v>45.48998382040917</v>
       </c>
       <c r="H21">
-        <v>12.90158451336389</v>
+        <v>17.99827210832986</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.186987448619951</v>
+        <v>10.13547079569461</v>
       </c>
       <c r="K21">
-        <v>23.52315806722529</v>
+        <v>15.89413278427503</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.259926219199826</v>
+        <v>8.272375311571272</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.32162962017155</v>
+        <v>8.188654143212975</v>
       </c>
       <c r="E22">
-        <v>12.72794128539548</v>
+        <v>13.52874343702659</v>
       </c>
       <c r="F22">
-        <v>35.91252802382663</v>
+        <v>39.16957141453022</v>
       </c>
       <c r="G22">
-        <v>46.74240898592972</v>
+        <v>45.65261039050134</v>
       </c>
       <c r="H22">
-        <v>13.06929389537721</v>
+        <v>17.98252820918743</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.314280071351904</v>
+        <v>10.13860352817234</v>
       </c>
       <c r="K22">
-        <v>24.39247056411639</v>
+        <v>16.19515430066046</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.082637158249989</v>
+        <v>8.234179949858531</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.205885003111177</v>
+        <v>8.166847077008626</v>
       </c>
       <c r="E23">
-        <v>12.52891492446173</v>
+        <v>13.49585375485259</v>
       </c>
       <c r="F23">
-        <v>35.42978071978071</v>
+        <v>39.12455203883543</v>
       </c>
       <c r="G23">
-        <v>46.0342370495829</v>
+        <v>45.56459158046257</v>
       </c>
       <c r="H23">
-        <v>12.97847765663473</v>
+        <v>17.99060332324095</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.246048888608408</v>
+        <v>10.13679169735476</v>
       </c>
       <c r="K23">
-        <v>23.93135404649294</v>
+        <v>16.03502013106305</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.388208635550013</v>
+        <v>8.090974551378521</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.756573623140559</v>
+        <v>8.085614340577752</v>
       </c>
       <c r="E24">
-        <v>11.76503502891952</v>
+        <v>13.37531822898169</v>
       </c>
       <c r="F24">
-        <v>33.6398184056747</v>
+        <v>38.9735923535393</v>
       </c>
       <c r="G24">
-        <v>43.40399727604454</v>
+        <v>45.25823154605798</v>
       </c>
       <c r="H24">
-        <v>12.66252299736144</v>
+        <v>18.02837163005702</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.993998598852369</v>
+        <v>10.13300469901217</v>
       </c>
       <c r="K24">
-        <v>22.12142346718985</v>
+        <v>15.41751146520545</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.734335998293732</v>
+        <v>7.94040149458952</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.249225207711157</v>
+        <v>8.001195656027511</v>
       </c>
       <c r="E25">
-        <v>10.92066415266115</v>
+        <v>13.25436025890614</v>
       </c>
       <c r="F25">
-        <v>31.79048415972074</v>
+        <v>38.8527927178516</v>
       </c>
       <c r="G25">
-        <v>40.67727026503301</v>
+        <v>44.98628311815104</v>
       </c>
       <c r="H25">
-        <v>12.37712694020369</v>
+        <v>18.08436477728321</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.735423208994688</v>
+        <v>10.13550464887693</v>
       </c>
       <c r="K25">
-        <v>20.02829321383112</v>
+        <v>14.73158294249064</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.833648188735877</v>
+        <v>7.229828566940257</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.942072044691518</v>
+        <v>5.857318067937702</v>
       </c>
       <c r="E2">
-        <v>13.17348693695376</v>
+        <v>10.28353647903483</v>
       </c>
       <c r="F2">
-        <v>38.80011919111798</v>
+        <v>30.49964730313093</v>
       </c>
       <c r="G2">
-        <v>44.83688766134003</v>
+        <v>38.76665117046912</v>
       </c>
       <c r="H2">
-        <v>18.13860692744838</v>
+        <v>12.2102132256356</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.14301455620032</v>
+        <v>6.556290145399093</v>
       </c>
       <c r="K2">
-        <v>14.21353379399252</v>
+        <v>18.36124487217453</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.764242965447843</v>
+        <v>6.87504573085497</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.904030169677477</v>
+        <v>5.581231031971041</v>
       </c>
       <c r="E3">
-        <v>13.12396650494155</v>
+        <v>9.843868610342454</v>
       </c>
       <c r="F3">
-        <v>38.78703876618852</v>
+        <v>29.67003564516105</v>
       </c>
       <c r="G3">
-        <v>44.76747267378506</v>
+        <v>37.53460490286562</v>
       </c>
       <c r="H3">
-        <v>18.18342773606313</v>
+        <v>12.1218032350658</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.15163998860108</v>
+        <v>6.441873657465965</v>
       </c>
       <c r="K3">
-        <v>13.85665889925906</v>
+        <v>17.15091082845083</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.72320144477648</v>
+        <v>6.65153657019447</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.881715106664447</v>
+        <v>5.406984199980086</v>
       </c>
       <c r="E4">
-        <v>13.09622379112826</v>
+        <v>9.570808871110421</v>
       </c>
       <c r="F4">
-        <v>38.79014149059881</v>
+        <v>29.1833575155063</v>
       </c>
       <c r="G4">
-        <v>44.74055136630349</v>
+        <v>36.81001687784715</v>
       </c>
       <c r="H4">
-        <v>18.21490304301797</v>
+        <v>12.0789427933209</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.15867910077848</v>
+        <v>6.375059503241596</v>
       </c>
       <c r="K4">
-        <v>13.63553500432987</v>
+        <v>16.36745937961939</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.706890394296038</v>
+        <v>6.559152141171447</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.872890157931265</v>
+        <v>5.334870419447643</v>
       </c>
       <c r="E5">
-        <v>13.08559585199511</v>
+        <v>9.458895781853617</v>
       </c>
       <c r="F5">
-        <v>38.79420103139911</v>
+        <v>28.99080408859059</v>
       </c>
       <c r="G5">
-        <v>44.73352497526613</v>
+        <v>36.52290349996645</v>
       </c>
       <c r="H5">
-        <v>18.22872088671235</v>
+        <v>12.06423425980644</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.16198572518456</v>
+        <v>6.348695918549793</v>
       </c>
       <c r="K5">
-        <v>13.54505852041486</v>
+        <v>16.03799272937457</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.704207454629304</v>
+        <v>6.543737104547169</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.871441186785059</v>
+        <v>5.322831817138098</v>
       </c>
       <c r="E6">
-        <v>13.08387221902405</v>
+        <v>9.440278606329185</v>
       </c>
       <c r="F6">
-        <v>38.795043758322</v>
+        <v>28.95918093002852</v>
       </c>
       <c r="G6">
-        <v>44.73259627711145</v>
+        <v>36.47572537376089</v>
       </c>
       <c r="H6">
-        <v>18.23107511202942</v>
+        <v>12.06195505631564</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.16256124209664</v>
+        <v>6.344370386803306</v>
       </c>
       <c r="K6">
-        <v>13.5300169291296</v>
+        <v>15.98266695932172</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.722979769947937</v>
+        <v>6.650295737872295</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.88159499445579</v>
+        <v>5.406016010522277</v>
       </c>
       <c r="E7">
-        <v>13.09607770636398</v>
+        <v>9.56930195868995</v>
       </c>
       <c r="F7">
-        <v>38.79018492934364</v>
+        <v>29.18073722868126</v>
       </c>
       <c r="G7">
-        <v>44.74044064409853</v>
+        <v>36.80611154061484</v>
       </c>
       <c r="H7">
-        <v>18.21508538549696</v>
+        <v>12.0787334176919</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.15872192142911</v>
+        <v>6.374700459365076</v>
       </c>
       <c r="K7">
-        <v>13.63431610676685</v>
+        <v>16.36305747556552</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.809401712617622</v>
+        <v>7.108744342145694</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.928742702994672</v>
+        <v>5.763149525292874</v>
       </c>
       <c r="E8">
-        <v>13.1558644944118</v>
+        <v>10.13266113208834</v>
       </c>
       <c r="F8">
-        <v>38.79329602531135</v>
+        <v>30.20892408171771</v>
       </c>
       <c r="G8">
-        <v>44.80969411935303</v>
+        <v>38.33531021988236</v>
       </c>
       <c r="H8">
-        <v>18.15323839920188</v>
+        <v>12.17728985037734</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.14562675731575</v>
+        <v>6.516125531310409</v>
       </c>
       <c r="K8">
-        <v>14.0909786682828</v>
+        <v>17.95224047908076</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.990534219509709</v>
+        <v>7.95833984089696</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.029179368417871</v>
+        <v>6.423076158397962</v>
       </c>
       <c r="E9">
-        <v>13.29385884648259</v>
+        <v>11.20767010800651</v>
       </c>
       <c r="F9">
-        <v>38.88785393219484</v>
+        <v>32.40253818488262</v>
       </c>
       <c r="G9">
-        <v>45.0700184638651</v>
+        <v>41.58092944661006</v>
       </c>
       <c r="H9">
-        <v>18.06347437382524</v>
+        <v>12.46625232403719</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.13378207754559</v>
+        <v>6.82076884271661</v>
       </c>
       <c r="K9">
-        <v>14.96494841199359</v>
+        <v>20.75262672220788</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.129573147518542</v>
+        <v>8.578350810577625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.107424063967057</v>
+        <v>6.880349209511754</v>
       </c>
       <c r="E10">
-        <v>13.40734119754875</v>
+        <v>11.9740389179868</v>
       </c>
       <c r="F10">
-        <v>39.01126815018412</v>
+        <v>34.1192344674568</v>
       </c>
       <c r="G10">
-        <v>45.33681298103772</v>
+        <v>44.10922442048587</v>
       </c>
       <c r="H10">
-        <v>18.01691544792497</v>
+        <v>12.74371127834188</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.13351489008168</v>
+        <v>7.06135079699049</v>
       </c>
       <c r="K10">
-        <v>15.58685502829543</v>
+        <v>22.62351952375623</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.193867757490745</v>
+        <v>8.89176236827765</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.143894133026123</v>
+        <v>7.082008006207576</v>
       </c>
       <c r="E11">
-        <v>13.46146170441785</v>
+        <v>12.31690201317023</v>
       </c>
       <c r="F11">
-        <v>39.07908147172608</v>
+        <v>34.92275751349177</v>
       </c>
       <c r="G11">
-        <v>45.47440666320976</v>
+        <v>45.28994518102355</v>
       </c>
       <c r="H11">
-        <v>17.99997932969108</v>
+        <v>12.88553500688537</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.13522266564675</v>
+        <v>7.174496903596878</v>
       </c>
       <c r="K11">
-        <v>15.8640558084707</v>
+        <v>23.43568790125753</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.218343311559442</v>
+        <v>9.00813248049456</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.157822241281364</v>
+        <v>7.157439138816006</v>
       </c>
       <c r="E12">
-        <v>13.48230257026349</v>
+        <v>12.44587677295547</v>
       </c>
       <c r="F12">
-        <v>39.10643126364985</v>
+        <v>35.23029625788793</v>
       </c>
       <c r="G12">
-        <v>45.52882060936633</v>
+        <v>45.74146550658761</v>
       </c>
       <c r="H12">
-        <v>17.99417878219852</v>
+        <v>12.94160448584033</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.13613195556092</v>
+        <v>7.217883445971005</v>
       </c>
       <c r="K12">
-        <v>15.96810383609796</v>
+        <v>23.73778374429614</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.213066690055618</v>
+        <v>8.983172259704531</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.154817473923517</v>
+        <v>7.14123536655552</v>
       </c>
       <c r="E13">
-        <v>13.47779890567554</v>
+        <v>12.41813828375248</v>
       </c>
       <c r="F13">
-        <v>39.10046685930114</v>
+        <v>35.16391654043674</v>
       </c>
       <c r="G13">
-        <v>45.51699926519699</v>
+        <v>45.64402561942902</v>
       </c>
       <c r="H13">
-        <v>17.99540074150738</v>
+        <v>12.92942184303122</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.13592445365401</v>
+        <v>7.208515163934049</v>
       </c>
       <c r="K13">
-        <v>15.94573775421332</v>
+        <v>23.67296220427512</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.195878923460468</v>
+        <v>8.901382306159983</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.145037696466721</v>
+        <v>7.088232534357086</v>
       </c>
       <c r="E14">
-        <v>13.46316942178983</v>
+        <v>12.32753018808541</v>
       </c>
       <c r="F14">
-        <v>39.08129813327359</v>
+        <v>34.94799330833872</v>
       </c>
       <c r="G14">
-        <v>45.4788371811326</v>
+        <v>45.32700340361412</v>
       </c>
       <c r="H14">
-        <v>17.99948982006615</v>
+        <v>12.89009980309523</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.13529221386508</v>
+        <v>7.178055446264721</v>
       </c>
       <c r="K14">
-        <v>15.8726349278715</v>
+        <v>23.4606499714492</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.185367020718125</v>
+        <v>8.850983732076381</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.139062377023599</v>
+        <v>7.05564492504489</v>
       </c>
       <c r="E15">
-        <v>13.45425319973254</v>
+        <v>12.27191752623566</v>
       </c>
       <c r="F15">
-        <v>39.06977398753524</v>
+        <v>34.81616001772294</v>
       </c>
       <c r="G15">
-        <v>45.45576188968541</v>
+        <v>45.1333935301295</v>
       </c>
       <c r="H15">
-        <v>18.0020743743334</v>
+        <v>12.8663253761554</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.13493912997393</v>
+        <v>7.159468694401375</v>
       </c>
       <c r="K15">
-        <v>15.82773442016955</v>
+        <v>23.32989665479561</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.125390519160364</v>
+        <v>8.557542853441678</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.1050575836792</v>
+        <v>6.867040601510658</v>
       </c>
       <c r="E16">
-        <v>13.40385348789128</v>
+        <v>11.95151290071701</v>
       </c>
       <c r="F16">
-        <v>39.00707062206118</v>
+        <v>34.06717715289889</v>
       </c>
       <c r="G16">
-        <v>45.32814556403517</v>
+        <v>44.03267618973614</v>
       </c>
       <c r="H16">
-        <v>18.01810788088758</v>
+        <v>12.73476697406724</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.13344005719944</v>
+        <v>7.054031553702054</v>
       </c>
       <c r="K16">
-        <v>15.56861561514159</v>
+        <v>22.56967112576091</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.088849127253599</v>
+        <v>8.379339231928443</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.084415296414782</v>
+        <v>6.749693410440726</v>
       </c>
       <c r="E17">
-        <v>13.37356573236966</v>
+        <v>11.75345032347792</v>
       </c>
       <c r="F17">
-        <v>38.97158856599494</v>
+        <v>33.61348339288719</v>
       </c>
       <c r="G17">
-        <v>45.25399824027379</v>
+        <v>43.36524049419665</v>
       </c>
       <c r="H17">
-        <v>18.02903272613645</v>
+        <v>12.65814167184159</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.13298867241294</v>
+        <v>6.990302389928649</v>
       </c>
       <c r="K17">
-        <v>15.40811812028148</v>
+        <v>22.0934270821676</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.067931160523671</v>
+        <v>8.291560485171683</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.072625376467959</v>
+        <v>6.681600515662443</v>
       </c>
       <c r="E18">
-        <v>13.35638081184352</v>
+        <v>11.63898820218757</v>
       </c>
       <c r="F18">
-        <v>38.95227943929336</v>
+        <v>33.35465394246994</v>
       </c>
       <c r="G18">
-        <v>45.21287976514533</v>
+        <v>42.98422373151246</v>
       </c>
       <c r="H18">
-        <v>18.03571571312066</v>
+        <v>12.61553049647327</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.13290126845401</v>
+        <v>6.953995027589113</v>
       </c>
       <c r="K18">
-        <v>15.31527248456644</v>
+        <v>21.81583244714007</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.06086647638635</v>
+        <v>8.261709281658337</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.068648013919063</v>
+        <v>6.658443470633628</v>
       </c>
       <c r="E19">
-        <v>13.35060316032587</v>
+        <v>11.60014154291522</v>
       </c>
       <c r="F19">
-        <v>38.94593069671275</v>
+        <v>33.26738363133073</v>
       </c>
       <c r="G19">
-        <v>45.19922101468942</v>
+        <v>42.85571256885193</v>
       </c>
       <c r="H19">
-        <v>18.03804695766287</v>
+        <v>12.6013505231399</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.1329012658439</v>
+        <v>6.941761566426781</v>
       </c>
       <c r="K19">
-        <v>15.28374844346999</v>
+        <v>21.72120901273064</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.092728861916063</v>
+        <v>8.395522635876217</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.086604174881279</v>
+        <v>6.76224726479225</v>
       </c>
       <c r="E20">
-        <v>13.37676559995407</v>
+        <v>11.77459078718549</v>
       </c>
       <c r="F20">
-        <v>38.97525197777923</v>
+        <v>33.66156015489243</v>
       </c>
       <c r="G20">
-        <v>45.26173324739959</v>
+        <v>43.43599281200897</v>
       </c>
       <c r="H20">
-        <v>18.02782841221198</v>
+        <v>12.6661464303311</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.13301890184694</v>
+        <v>6.99705041068426</v>
       </c>
       <c r="K20">
-        <v>15.42525914313208</v>
+        <v>22.14450310363276</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.200924070526026</v>
+        <v>8.925468415029043</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.14790712726491</v>
+        <v>7.103826162561298</v>
       </c>
       <c r="E21">
-        <v>13.46745715103287</v>
+        <v>12.35416747246439</v>
       </c>
       <c r="F21">
-        <v>39.08688319510892</v>
+        <v>35.01132634905733</v>
       </c>
       <c r="G21">
-        <v>45.48998382040917</v>
+        <v>45.42000048535127</v>
       </c>
       <c r="H21">
-        <v>17.99827210832986</v>
+        <v>12.9015845133639</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.13547079569461</v>
+        <v>7.186987448619937</v>
       </c>
       <c r="K21">
-        <v>15.89413278427503</v>
+        <v>23.52315806722532</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.272375311571272</v>
+        <v>9.259926219199766</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.188654143212975</v>
+        <v>7.32162962017155</v>
       </c>
       <c r="E22">
-        <v>13.52874343702659</v>
+        <v>12.72794128539549</v>
       </c>
       <c r="F22">
-        <v>39.16957141453022</v>
+        <v>35.91252802382668</v>
       </c>
       <c r="G22">
-        <v>45.65261039050134</v>
+        <v>46.74240898592978</v>
       </c>
       <c r="H22">
-        <v>17.98252820918743</v>
+        <v>13.06929389537722</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.13860352817234</v>
+        <v>7.314280071351897</v>
       </c>
       <c r="K22">
-        <v>16.19515430066046</v>
+        <v>24.3924705641164</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.234179949858531</v>
+        <v>9.082637158249982</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.166847077008626</v>
+        <v>7.205885003111249</v>
       </c>
       <c r="E23">
-        <v>13.49585375485259</v>
+        <v>12.52891492446174</v>
       </c>
       <c r="F23">
-        <v>39.12455203883543</v>
+        <v>35.42978071978079</v>
       </c>
       <c r="G23">
-        <v>45.56459158046257</v>
+        <v>46.03423704958294</v>
       </c>
       <c r="H23">
-        <v>17.99060332324095</v>
+        <v>12.97847765663473</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.13679169735476</v>
+        <v>7.246048888608366</v>
       </c>
       <c r="K23">
-        <v>16.03502013106305</v>
+        <v>23.93135404649293</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.090974551378521</v>
+        <v>8.388208635550038</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.085614340577752</v>
+        <v>6.756573623140572</v>
       </c>
       <c r="E24">
-        <v>13.37531822898169</v>
+        <v>11.76503502891956</v>
       </c>
       <c r="F24">
-        <v>38.9735923535393</v>
+        <v>33.63981840567469</v>
       </c>
       <c r="G24">
-        <v>45.25823154605798</v>
+        <v>43.40399727604449</v>
       </c>
       <c r="H24">
-        <v>18.02837163005702</v>
+        <v>12.66252299736144</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.13300469901217</v>
+        <v>6.993998598852409</v>
       </c>
       <c r="K24">
-        <v>15.41751146520545</v>
+        <v>22.12142346718986</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.94040149458952</v>
+        <v>7.734335998293725</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.001195656027511</v>
+        <v>6.249225207711033</v>
       </c>
       <c r="E25">
-        <v>13.25436025890614</v>
+        <v>10.92066415266116</v>
       </c>
       <c r="F25">
-        <v>38.8527927178516</v>
+        <v>31.79048415972057</v>
       </c>
       <c r="G25">
-        <v>44.98628311815104</v>
+        <v>40.67727026503287</v>
       </c>
       <c r="H25">
-        <v>18.08436477728321</v>
+        <v>12.3771269402036</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.13550464887693</v>
+        <v>6.735423208994725</v>
       </c>
       <c r="K25">
-        <v>14.73158294249064</v>
+        <v>20.02829321383121</v>
       </c>
       <c r="L25">
         <v>0</v>
